--- a/20220426_algo_v2_10/algo_results/perf_result/generalized_cf.xlsx
+++ b/20220426_algo_v2_10/algo_results/perf_result/generalized_cf.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BA4"/>
+  <dimension ref="A1:BA5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -600,160 +600,160 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.007148167209927375</v>
+        <v>0.00639817195087118</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007142857142857143</v>
+        <v>0.007084499800034279</v>
       </c>
       <c r="D2" t="n">
-        <v>0.006748255747455107</v>
+        <v>0.006871278057718736</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00703299216650466</v>
+        <v>0.007956952315530367</v>
       </c>
       <c r="F2" t="n">
-        <v>0.007323073402368556</v>
+        <v>0.006976212259835315</v>
       </c>
       <c r="G2" t="n">
-        <v>0.006812847083070934</v>
+        <v>0.006921404873584258</v>
       </c>
       <c r="H2" t="n">
-        <v>0.007309273640931932</v>
+        <v>0.007432818753573471</v>
       </c>
       <c r="I2" t="n">
-        <v>0.007548896259865035</v>
+        <v>0.007097882083571838</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00686106346483705</v>
+        <v>0.006173545215502458</v>
       </c>
       <c r="K2" t="n">
-        <v>0.007198765925841284</v>
+        <v>0.006346846589284693</v>
       </c>
       <c r="L2" t="n">
-        <v>0.008183118741058655</v>
+        <v>0.006807780320366132</v>
       </c>
       <c r="M2" t="n">
-        <v>0.007718255102624207</v>
+        <v>0.007328523989465247</v>
       </c>
       <c r="N2" t="n">
-        <v>0.007268356893492817</v>
+        <v>0.007267525035765379</v>
       </c>
       <c r="O2" t="n">
-        <v>0.005890089780980157</v>
+        <v>0.007786110952081067</v>
       </c>
       <c r="P2" t="n">
-        <v>0.007211125736851141</v>
+        <v>0.006689536878216123</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.008170961659333752</v>
+        <v>0.007024557395773843</v>
       </c>
       <c r="R2" t="n">
-        <v>0.006578571019964533</v>
+        <v>0.007423904974016332</v>
       </c>
       <c r="S2" t="n">
-        <v>0.007785665216395695</v>
+        <v>0.006518010291595197</v>
       </c>
       <c r="T2" t="n">
-        <v>0.007375643224699828</v>
+        <v>0.005828571428571429</v>
       </c>
       <c r="U2" t="n">
-        <v>0.007422633321913897</v>
+        <v>0.007024156244646223</v>
       </c>
       <c r="V2" t="n">
-        <v>0.007502863688430699</v>
+        <v>0.006466380543633763</v>
       </c>
       <c r="W2" t="n">
-        <v>0.007659769063678976</v>
+        <v>0.006586106179485711</v>
       </c>
       <c r="X2" t="n">
-        <v>0.007032187982390944</v>
+        <v>0.007196710075394105</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.006116033152329237</v>
+        <v>0.006870491240123669</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.006008927549502117</v>
+        <v>0.006573306659045442</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.007826782449725777</v>
+        <v>0.007438347542484408</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.006853226727584237</v>
+        <v>0.006745941001600732</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.007194655398846572</v>
+        <v>0.007494279176201373</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.006801554641060814</v>
+        <v>0.007440050363417845</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.006461943157774347</v>
+        <v>0.007098288396588242</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.00606719706942934</v>
+        <v>0.007093009953094612</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.005955107650022904</v>
+        <v>0.005998286203941731</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.007205764611689352</v>
+        <v>0.006578194714563551</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.007331882231641654</v>
+        <v>0.006863025450386045</v>
       </c>
       <c r="AJ2" t="n">
+        <v>0.007605649911362727</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.007333982696384576</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.007662835249042145</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.006358480838632067</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.006064420161336461</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.0073735352957988</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.007090170964606324</v>
+      </c>
+      <c r="AQ2" t="n">
         <v>0.006292546193009553</v>
       </c>
-      <c r="AK2" t="n">
-        <v>0.007199177236887213</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0.005947275118659575</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0.006578194714563551</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0.00686695278969957</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.006522485410230003</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>0.007710760795065113</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0.006577818452210719</v>
-      </c>
       <c r="AR2" t="n">
-        <v>0.007202469418086201</v>
+        <v>0.0072</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.006812457064346233</v>
+        <v>0.006858710562414266</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.007303851640513552</v>
+        <v>0.006755596267246808</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.007381129484465297</v>
+        <v>0.007037015847588535</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.008236101578586136</v>
+        <v>0.006861455772199669</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.006404757820094927</v>
+        <v>0.007897899616551251</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.008016950123117449</v>
+        <v>0.00760826039700246</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.006744013259415899</v>
+        <v>0.006753276483717736</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.007050908984280634</v>
+        <v>0.006963090863337165</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.0006002098141684692</v>
+        <v>0.0004919310072975257</v>
       </c>
     </row>
     <row r="3">
@@ -761,160 +761,160 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2059308072487644</v>
+        <v>0.1845140032948929</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2062706270627063</v>
+        <v>0.2087542087542087</v>
       </c>
       <c r="D3" t="n">
-        <v>0.191869918699187</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2120689655172414</v>
+        <v>0.2274959083469722</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2129783693843594</v>
+        <v>0.2023217247097844</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1922455573505654</v>
+        <v>0.2023411371237458</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2144053601340034</v>
+        <v>0.2199661590524535</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2256410256410256</v>
+        <v>0.2059800664451827</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2016806722689076</v>
+        <v>0.1821247892074199</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2107023411371237</v>
+        <v>0.1837748344370861</v>
       </c>
       <c r="L3" t="n">
-        <v>0.232520325203252</v>
+        <v>0.1980033277870216</v>
       </c>
       <c r="M3" t="n">
-        <v>0.220949263502455</v>
+        <v>0.2088091353996737</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2167235494880546</v>
+        <v>0.2123745819397993</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1702479338842975</v>
+        <v>0.2233169129720854</v>
       </c>
       <c r="P3" t="n">
-        <v>0.2072368421052632</v>
+        <v>0.1875</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.2244897959183673</v>
+        <v>0.2043189368770764</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1962457337883959</v>
+        <v>0.2155887230514096</v>
       </c>
       <c r="S3" t="n">
-        <v>0.2236842105263158</v>
+        <v>0.1856677524429967</v>
       </c>
       <c r="T3" t="n">
-        <v>0.2107843137254902</v>
+        <v>0.1746575342465753</v>
       </c>
       <c r="U3" t="n">
-        <v>0.2073365231259968</v>
+        <v>0.2067226890756302</v>
       </c>
       <c r="V3" t="n">
-        <v>0.2140522875816993</v>
+        <v>0.1928327645051195</v>
       </c>
       <c r="W3" t="n">
-        <v>0.2144</v>
+        <v>0.1959114139693356</v>
       </c>
       <c r="X3" t="n">
-        <v>0.2070707070707071</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1835334476843911</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.1785714285714286</v>
+        <v>0.1975945017182131</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.2231270358306189</v>
+        <v>0.2152317880794702</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.1986754966887417</v>
+        <v>0.1976549413735343</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.2058823529411765</v>
+        <v>0.2183333333333333</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.2020373514431239</v>
+        <v>0.2233676975945017</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.1968641114982578</v>
+        <v>0.2087542087542087</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.1760797342192691</v>
+        <v>0.2003231017770598</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.1685575364667747</v>
+        <v>0.175</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.2153846153846154</v>
+        <v>0.195578231292517</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.2091503267973856</v>
+        <v>0.1973684210526316</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.1943462897526502</v>
+        <v>0.2205638474295191</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.208955223880597</v>
+        <v>0.2140468227424749</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.1750841750841751</v>
+        <v>0.2126984126984127</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.1936026936026936</v>
+        <v>0.1816693944353519</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.196078431372549</v>
+        <v>0.1729200652528548</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.1962134251290878</v>
+        <v>0.2135761589403974</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.233160621761658</v>
+        <v>0.209106239460371</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.1900826446280992</v>
+        <v>0.1824212271973466</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.2139219015280136</v>
+        <v>0.2052117263843648</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.1993299832495812</v>
+        <v>0.2006688963210702</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.2088091353996737</v>
+        <v>0.193126022913257</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.212171052631579</v>
+        <v>0.2</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.2236024844720497</v>
+        <v>0.1990049751243781</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.1885521885521886</v>
+        <v>0.2262295081967213</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.2302631578947368</v>
+        <v>0.2224080267558528</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.1912479740680713</v>
+        <v>0.200339558573854</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.2046563990179474</v>
+        <v>0.2022146531241265</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.01563675132631014</v>
+        <v>0.01390095684249412</v>
       </c>
     </row>
     <row r="4">
@@ -922,160 +922,321 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.01381673482922516</v>
+        <v>0.01236749116607774</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0138075775985861</v>
+        <v>0.01370392882798254</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01303795370421524</v>
+        <v>0.013271400132714</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01361447783496596</v>
+        <v>0.01537610619469026</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01415929203539823</v>
+        <v>0.01348736941020397</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01315934977330532</v>
+        <v>0.01338495575221239</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01413661715169253</v>
+        <v>0.01437973563409104</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01460904211167063</v>
+        <v>0.01372288623284639</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01327066629803705</v>
+        <v>0.01194227898490629</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0139218827689078</v>
+        <v>0.01226993865030675</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01580983969043671</v>
+        <v>0.01316298877274487</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01491547895260192</v>
+        <v>0.01416007522539964</v>
       </c>
       <c r="N4" t="n">
-        <v>0.01406500913671853</v>
+        <v>0.01405411387152105</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01138624806544329</v>
+        <v>0.0150475768975437</v>
       </c>
       <c r="P4" t="n">
-        <v>0.01393728222996516</v>
+        <v>0.01291818482941371</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01576800088212592</v>
+        <v>0.0135821554770318</v>
       </c>
       <c r="R4" t="n">
-        <v>0.01273039242818398</v>
+        <v>0.01435353869934857</v>
       </c>
       <c r="S4" t="n">
-        <v>0.01504757689754371</v>
+        <v>0.01259390190013257</v>
       </c>
       <c r="T4" t="n">
-        <v>0.01425256877693073</v>
+        <v>0.0112806901128069</v>
       </c>
       <c r="U4" t="n">
-        <v>0.014332175734524</v>
+        <v>0.01358665635700873</v>
       </c>
       <c r="V4" t="n">
-        <v>0.01449756529437804</v>
+        <v>0.01251314988095897</v>
       </c>
       <c r="W4" t="n">
-        <v>0.01479110326176942</v>
+        <v>0.01274379432624114</v>
       </c>
       <c r="X4" t="n">
-        <v>0.01360243295548797</v>
+        <v>0.01390728476821192</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.01183759265405465</v>
+        <v>0.01329566229017783</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.01162661942199092</v>
+        <v>0.01272335011340377</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.01512308201788277</v>
+        <v>0.01437973563409104</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.01324942033786022</v>
+        <v>0.01304660290784455</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.01390344827586207</v>
+        <v>0.01449115044247788</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.01316007741222007</v>
+        <v>0.01440044309055663</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.01251314988095897</v>
+        <v>0.01372972374467143</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.01173020527859238</v>
+        <v>0.01370090050273466</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.01150378850727283</v>
+        <v>0.0115990057995029</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.01394499474295833</v>
+        <v>0.01272827891532928</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.01416712783619258</v>
+        <v>0.01326479854087216</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.0121903917548623</v>
+        <v>0.01470425649530127</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.01391880695940348</v>
+        <v>0.01418203977618969</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.01150378850727283</v>
+        <v>0.01479273610421151</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.01272405399424651</v>
+        <v>0.01228691609475315</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.0132691988721181</v>
+        <v>0.01171788635861154</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.01262528379201506</v>
+        <v>0.01425493121166915</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.01492784873113286</v>
+        <v>0.01371529698042252</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.0127156125608138</v>
+        <v>0.0121654501216545</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.01393574075098158</v>
+        <v>0.01391189135475323</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.01317464710766676</v>
+        <v>0.01326406543605615</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.01411401477560922</v>
+        <v>0.01305454143157429</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.01426596627038982</v>
+        <v>0.01359566707195755</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.01588702559576346</v>
+        <v>0.01326553172673005</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.01238869531552458</v>
+        <v>0.01526295415583697</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.01549443860328703</v>
+        <v>0.01471320316389181</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.01302859666556255</v>
+        <v>0.01306610563614218</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.01363185770069219</v>
+        <v>0.01346246654411625</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.0011547594331825</v>
+        <v>0.0009492699078558605</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7860302677532014</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7927823050058207</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7850989522700815</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7862630966239814</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.7913853317811409</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.7825378346915017</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.7762514551804424</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.79953434225844</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.7818393480791618</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.7783469150174621</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.7913853317811409</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.7925494761350408</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.7871944121071013</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.790221187427241</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.7844004656577416</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.780442374854482</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.7864959254947613</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.7885913853317812</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.7881257275902211</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.7867287543655413</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.7918509895227008</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.7904540162980209</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.7846332945285215</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.7809080325960419</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.7885913853317812</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.790221187427241</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.7834691501746216</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.7811408614668219</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.7878928987194412</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.7883585564610012</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.7883585564610012</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.7878928987194412</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.7874272409778813</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.7813736903376018</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.7750873108265425</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.7790454016298021</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.7841676367869616</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.8013969732246798</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.7813736903376018</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.7834691501746216</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.780442374854482</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.789988358556461</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.7869615832363213</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0.7846332945285215</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.7867287543655413</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0.7881257275902211</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0.7953434225844005</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0.7823050058207218</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0.7848661233993015</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0.7788125727590222</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0.7862305005820722</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0.005288242300914685</v>
       </c>
     </row>
   </sheetData>

--- a/20220426_algo_v2_10/algo_results/perf_result/generalized_cf.xlsx
+++ b/20220426_algo_v2_10/algo_results/perf_result/generalized_cf.xlsx
@@ -600,160 +600,160 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00639817195087118</v>
+        <v>0.00668800731679433</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007084499800034279</v>
+        <v>0.006695662126588074</v>
       </c>
       <c r="D2" t="n">
-        <v>0.006871278057718736</v>
+        <v>0.006463791328223316</v>
       </c>
       <c r="E2" t="n">
-        <v>0.007956952315530367</v>
+        <v>0.008131477982019126</v>
       </c>
       <c r="F2" t="n">
-        <v>0.006976212259835315</v>
+        <v>0.006922196796338672</v>
       </c>
       <c r="G2" t="n">
-        <v>0.006921404873584258</v>
+        <v>0.007369323050556984</v>
       </c>
       <c r="H2" t="n">
-        <v>0.007432818753573471</v>
+        <v>0.007320979180965454</v>
       </c>
       <c r="I2" t="n">
-        <v>0.007097882083571838</v>
+        <v>0.007319304666056725</v>
       </c>
       <c r="J2" t="n">
-        <v>0.006173545215502458</v>
+        <v>0.006805833571632828</v>
       </c>
       <c r="K2" t="n">
-        <v>0.006346846589284693</v>
+        <v>0.007432393802527014</v>
       </c>
       <c r="L2" t="n">
-        <v>0.006807780320366132</v>
+        <v>0.007313449891440978</v>
       </c>
       <c r="M2" t="n">
-        <v>0.007328523989465247</v>
+        <v>0.007731958762886598</v>
       </c>
       <c r="N2" t="n">
-        <v>0.007267525035765379</v>
+        <v>0.007488281696581685</v>
       </c>
       <c r="O2" t="n">
-        <v>0.007786110952081067</v>
+        <v>0.006522112248984495</v>
       </c>
       <c r="P2" t="n">
-        <v>0.006689536878216123</v>
+        <v>0.007149393731411577</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.007024557395773843</v>
+        <v>0.006857142857142857</v>
       </c>
       <c r="R2" t="n">
-        <v>0.007423904974016332</v>
+        <v>0.00709585121602289</v>
       </c>
       <c r="S2" t="n">
-        <v>0.006518010291595197</v>
+        <v>0.007716490425835953</v>
       </c>
       <c r="T2" t="n">
-        <v>0.005828571428571429</v>
+        <v>0.00704265674205554</v>
       </c>
       <c r="U2" t="n">
-        <v>0.007024156244646223</v>
+        <v>0.008011444921316165</v>
       </c>
       <c r="V2" t="n">
-        <v>0.006466380543633763</v>
+        <v>0.007377752359164999</v>
       </c>
       <c r="W2" t="n">
-        <v>0.006586106179485711</v>
+        <v>0.006689154422274313</v>
       </c>
       <c r="X2" t="n">
-        <v>0.007196710075394105</v>
+        <v>0.006692598100903787</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.006870491240123669</v>
+        <v>0.006232132647226987</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.006573306659045442</v>
+        <v>0.007215668308326652</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.007438347542484408</v>
+        <v>0.007315957933241884</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.006745941001600732</v>
+        <v>0.007829466224711396</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.007494279176201373</v>
+        <v>0.007612179487179487</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.007440050363417845</v>
+        <v>0.006805055183850861</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.007098288396588242</v>
+        <v>0.006627813964118386</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.007093009953094612</v>
+        <v>0.007268356893492817</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.005998286203941731</v>
+        <v>0.007648838404018494</v>
       </c>
       <c r="AH2" t="n">
+        <v>0.006634257935373177</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.006513169170999257</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.007205352547606794</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.007837528604118993</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.007155123068116772</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.006802332228192523</v>
+      </c>
+      <c r="AN2" t="n">
         <v>0.006578194714563551</v>
       </c>
-      <c r="AI2" t="n">
-        <v>0.006863025450386045</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.007605649911362727</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0.007333982696384576</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0.007662835249042145</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0.006358480838632067</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0.006064420161336461</v>
-      </c>
       <c r="AO2" t="n">
-        <v>0.0073735352957988</v>
+        <v>0.007207001086770005</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.007090170964606324</v>
+        <v>0.00714204090961033</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.006292546193009553</v>
+        <v>0.007030982050988911</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.0072</v>
+        <v>0.006467120700509357</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.006858710562414266</v>
+        <v>0.006860671202332629</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.006755596267246808</v>
+        <v>0.007385355241312189</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.007037015847588535</v>
+        <v>0.007198354661791591</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.006861455772199669</v>
+        <v>0.007551487414187643</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.007897899616551251</v>
+        <v>0.006578194714563551</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.00760826039700246</v>
+        <v>0.006973022405121171</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.006753276483717736</v>
+        <v>0.00698459953054331</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.006963090863337165</v>
+        <v>0.007109950288611861</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.0004919310072975257</v>
+        <v>0.0004384531835518172</v>
       </c>
     </row>
     <row r="3">
@@ -761,160 +761,160 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1845140032948929</v>
+        <v>0.1927512355848435</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2087542087542087</v>
+        <v>0.1902439024390244</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1935483870967742</v>
+        <v>0.1908783783783784</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2274959083469722</v>
+        <v>0.2305194805194805</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2023217247097844</v>
+        <v>0.2126537785588752</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2023411371237458</v>
+        <v>0.212171052631579</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2199661590524535</v>
+        <v>0.2034976152623212</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2059800664451827</v>
+        <v>0.2180579216354344</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1821247892074199</v>
+        <v>0.1970198675496689</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1837748344370861</v>
+        <v>0.2177554438860972</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1980033277870216</v>
+        <v>0.2173174872665535</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2088091353996737</v>
+        <v>0.2202283849918434</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2123745819397993</v>
+        <v>0.2158154859967051</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2233169129720854</v>
+        <v>0.1850649350649351</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1875</v>
+        <v>0.2062706270627063</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.2043189368770764</v>
+        <v>0.1993355481727575</v>
       </c>
       <c r="R3" t="n">
-        <v>0.2155887230514096</v>
+        <v>0.2070116861435726</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1856677524429967</v>
+        <v>0.2170418006430868</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1746575342465753</v>
+        <v>0.2013093289689034</v>
       </c>
       <c r="U3" t="n">
-        <v>0.2067226890756302</v>
+        <v>0.2283849918433931</v>
       </c>
       <c r="V3" t="n">
-        <v>0.1928327645051195</v>
+        <v>0.2164429530201342</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1959114139693356</v>
+        <v>0.1940298507462687</v>
       </c>
       <c r="X3" t="n">
-        <v>0.2058823529411765</v>
+        <v>0.198641765704584</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.2051282051282051</v>
+        <v>0.1724683544303797</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.1975945017182131</v>
+        <v>0.21</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.2152317880794702</v>
+        <v>0.2129783693843594</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.1976549413735343</v>
+        <v>0.2306397306397306</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.2183333333333333</v>
+        <v>0.2155591572123177</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.2233676975945017</v>
+        <v>0.2</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.2087542087542087</v>
+        <v>0.1911037891268534</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.2003231017770598</v>
+        <v>0.2055016181229773</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.175</v>
+        <v>0.2140575079872205</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.195578231292517</v>
+        <v>0.1943048576214405</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.1973684210526316</v>
+        <v>0.1942078364565588</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.2205638474295191</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.2140468227424749</v>
+        <v>0.2242225859247136</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.2126984126984127</v>
+        <v>0.2059308072487644</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.1816693944353519</v>
+        <v>0.1989966555183947</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.1729200652528548</v>
+        <v>0.1866883116883117</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.2135761589403974</v>
+        <v>0.2110552763819095</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.209106239460371</v>
+        <v>0.2129471890971039</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.1824212271973466</v>
+        <v>0.2060301507537688</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.2052117263843648</v>
+        <v>0.1858552631578947</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.2006688963210702</v>
+        <v>0.1970443349753695</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.193126022913257</v>
+        <v>0.2094155844155844</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.2</v>
+        <v>0.2028985507246377</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.1990049751243781</v>
+        <v>0.2181818181818182</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.2262295081967213</v>
+        <v>0.1869918699186992</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.2224080267558528</v>
+        <v>0.1996726677577741</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.200339558573854</v>
+        <v>0.2026578073089701</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.2022146531241265</v>
+        <v>0.2053750033566168</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.01390095684249412</v>
+        <v>0.01259561676573683</v>
       </c>
     </row>
     <row r="4">
@@ -922,160 +922,160 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.01236749116607774</v>
+        <v>0.01292746257112867</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01370392882798254</v>
+        <v>0.01293603847642214</v>
       </c>
       <c r="D4" t="n">
-        <v>0.013271400132714</v>
+        <v>0.01250414960717052</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01537610619469026</v>
+        <v>0.01570883345317772</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01348736941020397</v>
+        <v>0.01340794503850629</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01338495575221239</v>
+        <v>0.01424391321150555</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01437973563409104</v>
+        <v>0.01413349527963341</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01372288623284639</v>
+        <v>0.01416320885200553</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01194227898490629</v>
+        <v>0.01315716733926696</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01226993865030675</v>
+        <v>0.01437417072091995</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01316298877274487</v>
+        <v>0.01415068265988613</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01416007522539964</v>
+        <v>0.01493941238311293</v>
       </c>
       <c r="N4" t="n">
-        <v>0.01405411387152105</v>
+        <v>0.01447433843434064</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0150475768975437</v>
+        <v>0.01260016579165515</v>
       </c>
       <c r="P4" t="n">
-        <v>0.01291818482941371</v>
+        <v>0.01381978993919293</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0135821554770318</v>
+        <v>0.01325820351342393</v>
       </c>
       <c r="R4" t="n">
-        <v>0.01435353869934857</v>
+        <v>0.0137213677105234</v>
       </c>
       <c r="S4" t="n">
-        <v>0.01259390190013257</v>
+        <v>0.01490312965722802</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0112806901128069</v>
+        <v>0.01360920557645497</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01358665635700873</v>
+        <v>0.01547987616099071</v>
       </c>
       <c r="V4" t="n">
-        <v>0.01251314988095897</v>
+        <v>0.01426912228305957</v>
       </c>
       <c r="W4" t="n">
-        <v>0.01274379432624114</v>
+        <v>0.01293246380015475</v>
       </c>
       <c r="X4" t="n">
-        <v>0.01390728476821192</v>
+        <v>0.01294892368988988</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.01329566229017783</v>
+        <v>0.01202957730934776</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.01272335011340377</v>
+        <v>0.0139519433063891</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.01437973563409104</v>
+        <v>0.01414599104824004</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.01304660290784455</v>
+        <v>0.0151448153880168</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.01449115044247788</v>
+        <v>0.01470506937918072</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.01440044309055663</v>
+        <v>0.0131622608118571</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.01372972374467143</v>
+        <v>0.01281130929372135</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.01370090050273466</v>
+        <v>0.01404013045160577</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.0115990057995029</v>
+        <v>0.01476990906585836</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.01272827891532928</v>
+        <v>0.01283043911071784</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.01326479854087216</v>
+        <v>0.01260364842454395</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.01470425649530127</v>
+        <v>0.01392572944297082</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.01418203977618969</v>
+        <v>0.01514565253440937</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.01479273610421151</v>
+        <v>0.01382972838413454</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.01228691609475315</v>
+        <v>0.0131549856290073</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.01171788635861154</v>
+        <v>0.01270858658415295</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.01425493121166915</v>
+        <v>0.01393805309734513</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.01371529698042252</v>
+        <v>0.01382055392780143</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.0121654501216545</v>
+        <v>0.01359792161848433</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.01391189135475323</v>
+        <v>0.01249930866655605</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.01326406543605615</v>
+        <v>0.01325966850828729</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.01305454143157429</v>
+        <v>0.01426754410219543</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.01359566707195755</v>
+        <v>0.01390344827586207</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.01326553172673005</v>
+        <v>0.01459773292784075</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.01526295415583697</v>
+        <v>0.01270928883240316</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.01471320316389181</v>
+        <v>0.01347545148285193</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.01306610563614218</v>
+        <v>0.01350379102329957</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.01346246654411625</v>
+        <v>0.01374391209553461</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.0009492699078558605</v>
+        <v>0.00084597987733531</v>
       </c>
     </row>
     <row r="5">
@@ -1083,160 +1083,160 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
+        <v>0.7864959254947613</v>
+      </c>
+      <c r="C5" t="n">
         <v>0.7860302677532014</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.7927823050058207</v>
-      </c>
       <c r="D5" t="n">
-        <v>0.7850989522700815</v>
+        <v>0.7918509895227008</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7862630966239814</v>
+        <v>0.7883585564610012</v>
       </c>
       <c r="F5" t="n">
+        <v>0.7792782305005821</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.7871944121071013</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.7832363213038417</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.7867287543655413</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.7764842840512224</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.7844004656577416</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.7906868451688009</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.7857974388824214</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.7827706635622818</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.7746216530849825</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.7776484284051223</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.7876600698486612</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.779976717112922</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.790221187427241</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.7809080325960419</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.7806752037252619</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.7906868451688009</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.7762514551804424</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.7853317811408614</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.7823050058207218</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.7848661233993015</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.7878928987194412</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.7820721769499418</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.7990686845168801</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.7967403958090803</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.789988358556461</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.7844004656577416</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.7820721769499418</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.7930151338766007</v>
+      </c>
+      <c r="AI5" t="n">
         <v>0.7913853317811409</v>
       </c>
-      <c r="G5" t="n">
+      <c r="AJ5" t="n">
+        <v>0.7823050058207218</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.790221187427241</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.7906868451688009</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.7923166472642608</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.7841676367869616</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.790221187427241</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.7837019790454016</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.7864959254947613</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.7864959254947613</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0.7841676367869616</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.7841676367869616</v>
+      </c>
+      <c r="AU5" t="n">
         <v>0.7825378346915017</v>
       </c>
-      <c r="H5" t="n">
-        <v>0.7762514551804424</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.79953434225844</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.7818393480791618</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.7783469150174621</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.7913853317811409</v>
-      </c>
-      <c r="M5" t="n">
+      <c r="AV5" t="n">
+        <v>0.7855646100116415</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0.7944121071012805</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0.7853317811408614</v>
+      </c>
+      <c r="AY5" t="n">
         <v>0.7925494761350408</v>
       </c>
-      <c r="N5" t="n">
-        <v>0.7871944121071013</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.790221187427241</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.7844004656577416</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.780442374854482</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.7864959254947613</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.7885913853317812</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.7881257275902211</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.7867287543655413</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.7918509895227008</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.7904540162980209</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.7846332945285215</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0.7809080325960419</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0.7885913853317812</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0.790221187427241</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0.7834691501746216</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0.7811408614668219</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0.7878928987194412</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0.7883585564610012</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0.7883585564610012</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0.7878928987194412</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>0.7874272409778813</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0.7813736903376018</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>0.7750873108265425</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>0.7790454016298021</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>0.7841676367869616</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>0.8013969732246798</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>0.7813736903376018</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0.7834691501746216</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0.780442374854482</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>0.789988358556461</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>0.7869615832363213</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>0.7846332945285215</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>0.7867287543655413</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>0.7881257275902211</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>0.7953434225844005</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>0.7823050058207218</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>0.7848661233993015</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>0.7788125727590222</v>
-      </c>
       <c r="AZ5" t="n">
-        <v>0.7862305005820722</v>
+        <v>0.7860488940628637</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.005288242300914685</v>
+        <v>0.005164360592597931</v>
       </c>
     </row>
   </sheetData>
